--- a/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_41.xlsx
+++ b/model/Outputs/8. Fixed RE/No PV w Bat/Output Files/20/Output_16_41.xlsx
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>53471.10695111989</v>
+        <v>10640750.28327285</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53471.10695111989</v>
+        <v>10640750.28327285</v>
       </c>
     </row>
     <row r="9">
@@ -531,7 +531,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="10">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>86.27031193816731</v>
+        <v>5176.218716290039</v>
       </c>
     </row>
     <row r="11">
@@ -561,7 +561,7 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>1112717127.662486</v>
+        <v>45904522.74355058</v>
       </c>
     </row>
   </sheetData>
@@ -26131,7 +26131,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>9503.394159317873</v>
+        <v>1058806.534508379</v>
       </c>
     </row>
     <row r="3">
@@ -26139,7 +26139,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>18066.98884883498</v>
+        <v>1971354.520940268</v>
       </c>
     </row>
     <row r="4">
@@ -26147,7 +26147,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>26630.58353835207</v>
+        <v>2883902.50737216</v>
       </c>
     </row>
     <row r="5">
@@ -26155,7 +26155,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>35587.88297681031</v>
+        <v>3817879.068481978</v>
       </c>
     </row>
     <row r="6">
@@ -26163,7 +26163,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>44440.01554658169</v>
+        <v>4730927.42272311</v>
       </c>
     </row>
     <row r="7">
@@ -26171,7 +26171,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>53292.14811635307</v>
+        <v>5643975.776964241</v>
       </c>
     </row>
     <row r="8">
@@ -26179,7 +26179,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>62144.28068612443</v>
+        <v>6557024.131205369</v>
       </c>
     </row>
     <row r="9">
@@ -26187,7 +26187,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>70996.41325589579</v>
+        <v>7470072.485446496</v>
       </c>
     </row>
     <row r="10">
@@ -26195,7 +26195,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>79884.74151998408</v>
+        <v>8385011.942717928</v>
       </c>
     </row>
     <row r="11">
@@ -26203,7 +26203,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>88763.56675376931</v>
+        <v>9298060.296959056</v>
       </c>
     </row>
     <row r="12">
@@ -26211,7 +26211,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>97642.39198755454</v>
+        <v>10211108.65120019</v>
       </c>
     </row>
     <row r="13">
@@ -26219,7 +26219,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>106126.4982445886</v>
+        <v>11103228.79857264</v>
       </c>
     </row>
     <row r="14">
@@ -26227,7 +26227,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>114715.7713703095</v>
+        <v>12016277.15281378</v>
       </c>
     </row>
     <row r="15">
@@ -26235,7 +26235,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>123305.0444960304</v>
+        <v>12929325.50705491</v>
       </c>
     </row>
     <row r="16">
@@ -26243,7 +26243,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>131894.3176217513</v>
+        <v>13842373.86129605</v>
       </c>
     </row>
   </sheetData>
